--- a/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEFADE90-AAA7-4702-94E7-BB7CFCA8A594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BA063D-3649-45DC-BAD9-614E0DDC617C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D20B50C4-0E91-4F46-A174-97ACE5B704AB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{432566F1-4FF6-46F5-B4A0-8A9C953F5164}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A5A540-C0AB-4448-83F8-398C4AA731D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2147F040-5B48-4A3F-B244-A55BBE0A398E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BA063D-3649-45DC-BAD9-614E0DDC617C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA75F37F-E960-44B2-A65A-B9F3B7FEB2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{432566F1-4FF6-46F5-B4A0-8A9C953F5164}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37CD7260-6C65-4368-BF44-58D8A2D7FC08}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
@@ -74,28 +74,28 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,28 +104,28 @@
     <t>6,09%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
   </si>
   <si>
     <t>8,57%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,28 +134,28 @@
     <t>23,25%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>28,53%</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -164,484 +164,472 @@
     <t>66,23%</t>
   </si>
   <si>
-    <t>56,8%</t>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>6,81%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>14,32%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>11,67%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>15,18%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>66,47%</t>
   </si>
   <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
   </si>
   <si>
     <t>54,86%</t>
   </si>
   <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
+    <t>57,79%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>7,59%</t>
   </si>
   <si>
     <t>9,78%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>8,36%</t>
@@ -650,37 +638,34 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>9,01%</t>
+    <t>9,03%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>6,63%</t>
+    <t>8,69%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>17,03%</t>
+    <t>17,09%</t>
   </si>
   <si>
     <t>19,93%</t>
@@ -689,46 +674,46 @@
     <t>25,58%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>52,69%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2147F040-5B48-4A3F-B244-A55BBE0A398E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7144AC7A-FD35-4AC9-B232-BECED7E3ED6D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1450,13 +1435,13 @@
         <v>132876</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1471,13 +1456,13 @@
         <v>100905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>243</v>
@@ -1486,13 +1471,13 @@
         <v>130733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>360</v>
@@ -1501,18 +1486,18 @@
         <v>231638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1524,13 +1509,13 @@
         <v>41885</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>115</v>
@@ -1539,13 +1524,13 @@
         <v>68276</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -1554,13 +1539,13 @@
         <v>110161</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,13 +1560,13 @@
         <v>53234</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -1590,13 +1575,13 @@
         <v>79305</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
@@ -1605,13 +1590,13 @@
         <v>132539</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,13 +1611,13 @@
         <v>111872</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>306</v>
@@ -1641,13 +1626,13 @@
         <v>152944</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>451</v>
@@ -1656,13 +1641,13 @@
         <v>264816</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1662,13 @@
         <v>342832</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>428</v>
@@ -1692,13 +1677,13 @@
         <v>291486</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>784</v>
@@ -1707,13 +1692,13 @@
         <v>634318</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,13 +1713,13 @@
         <v>549823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>994</v>
@@ -1743,13 +1728,13 @@
         <v>592011</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1606</v>
@@ -1758,18 +1743,18 @@
         <v>1141834</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1766,13 @@
         <v>60675</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>173</v>
@@ -1796,13 +1781,13 @@
         <v>115409</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>244</v>
@@ -1811,13 +1796,13 @@
         <v>176084</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1817,13 @@
         <v>74362</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>201</v>
@@ -1847,13 +1832,13 @@
         <v>124856</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>282</v>
@@ -1862,13 +1847,13 @@
         <v>199218</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1868,13 @@
         <v>169373</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>427</v>
@@ -1898,13 +1883,13 @@
         <v>252409</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>630</v>
@@ -1913,13 +1898,13 @@
         <v>421782</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1919,13 @@
         <v>734838</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>715</v>
@@ -1949,13 +1934,13 @@
         <v>566800</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1324</v>
@@ -1964,13 +1949,13 @@
         <v>1301638</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1970,13 @@
         <v>1039248</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>1516</v>
@@ -2000,13 +1985,13 @@
         <v>1059474</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>2480</v>
@@ -2015,18 +2000,18 @@
         <v>2098722</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2023,13 @@
         <v>48897</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>81</v>
@@ -2053,13 +2038,13 @@
         <v>57006</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -2068,13 +2053,13 @@
         <v>105903</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2074,13 @@
         <v>41851</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>142</v>
@@ -2104,13 +2089,13 @@
         <v>95133</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>187</v>
@@ -2119,13 +2104,13 @@
         <v>136984</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2125,13 @@
         <v>150478</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>244</v>
@@ -2155,13 +2140,13 @@
         <v>271861</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M21" s="7">
         <v>400</v>
@@ -2170,13 +2155,13 @@
         <v>422339</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2176,13 @@
         <v>487545</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>580</v>
@@ -2206,13 +2191,13 @@
         <v>450372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>1005</v>
@@ -2221,13 +2206,13 @@
         <v>937916</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2227,13 @@
         <v>728772</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>1047</v>
@@ -2257,13 +2242,13 @@
         <v>874371</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1723</v>
@@ -2272,18 +2257,18 @@
         <v>1603142</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2295,13 +2280,13 @@
         <v>72515</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>187</v>
@@ -2310,13 +2295,13 @@
         <v>123163</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>273</v>
@@ -2325,13 +2310,13 @@
         <v>195678</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2331,13 @@
         <v>80543</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>218</v>
@@ -2361,13 +2346,13 @@
         <v>141751</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>312</v>
@@ -2376,13 +2361,13 @@
         <v>222294</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2382,13 @@
         <v>170673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>374</v>
@@ -2412,13 +2397,13 @@
         <v>253146</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>576</v>
@@ -2427,13 +2412,13 @@
         <v>423819</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2433,13 @@
         <v>641672</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>782</v>
@@ -2463,13 +2448,13 @@
         <v>629610</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>1406</v>
@@ -2478,13 +2463,13 @@
         <v>1271282</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,28 +2484,28 @@
         <v>965403</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>1561</v>
       </c>
       <c r="I28" s="7">
-        <v>1147669</v>
+        <v>1147670</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>2567</v>
@@ -2529,13 +2514,13 @@
         <v>2113073</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2537,13 @@
         <v>228449</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>570</v>
@@ -2567,13 +2552,13 @@
         <v>372205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>829</v>
@@ -2582,13 +2567,13 @@
         <v>600654</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2588,13 @@
         <v>256132</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>739</v>
@@ -2618,13 +2603,13 @@
         <v>454755</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>1032</v>
@@ -2633,13 +2618,13 @@
         <v>710887</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2639,13 @@
         <v>625856</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>1443</v>
@@ -2669,13 +2654,13 @@
         <v>972981</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>2182</v>
@@ -2684,13 +2669,13 @@
         <v>1598837</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2690,13 @@
         <v>2273714</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>2609</v>
@@ -2720,13 +2705,13 @@
         <v>2004317</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>4693</v>
@@ -2735,13 +2720,13 @@
         <v>4278031</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2741,13 @@
         <v>3384151</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>5361</v>
@@ -2771,13 +2756,13 @@
         <v>3804258</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>8736</v>
@@ -2786,18 +2771,18 @@
         <v>7188409</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA75F37F-E960-44B2-A65A-B9F3B7FEB2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C82B2242-D049-486B-B8C9-09C9771F6574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37CD7260-6C65-4368-BF44-58D8A2D7FC08}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B183369-E908-4B83-86A9-C58EDD94A1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,28 +104,28 @@
     <t>6,09%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>8,57%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,28 +134,28 @@
     <t>23,25%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
   </si>
   <si>
     <t>28,53%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -164,25 +164,28 @@
     <t>66,23%</t>
   </si>
   <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>50,52%</t>
   </si>
   <si>
-    <t>43,2%</t>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
   </si>
   <si>
     <t>57,36%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,106 +197,109 @@
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>20,35%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>25,83%</t>
   </si>
   <si>
-    <t>28,7%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>62,35%</t>
   </si>
   <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
   </si>
   <si>
     <t>49,24%</t>
   </si>
   <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
   </si>
   <si>
     <t>55,55%</t>
   </si>
   <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -302,28 +308,28 @@
     <t>5,84%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>7,16%</t>
@@ -332,79 +338,79 @@
     <t>5,59%</t>
   </si>
   <si>
-    <t>9,07%</t>
+    <t>9,14%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>23,82%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>70,71%</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
   </si>
   <si>
     <t>53,5%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -413,103 +419,109 @@
     <t>6,71%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>10,88%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>20,65%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>20,24%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>42,97%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
   </si>
   <si>
     <t>66,9%</t>
   </si>
   <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
   </si>
   <si>
     <t>51,51%</t>
   </si>
   <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>58,5%</t>
   </si>
   <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -518,118 +530,118 @@
     <t>7,51%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>6,81%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>14,32%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>11,67%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>15,18%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
   </si>
   <si>
     <t>66,47%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
   </si>
   <si>
     <t>54,86%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>57,79%</t>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>7,59%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>9,78%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>8,36%</t>
@@ -638,34 +650,37 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>9,03%</t>
+    <t>9,01%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>8,69%</t>
+    <t>6,63%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>10,61%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>17,09%</t>
+    <t>17,03%</t>
   </si>
   <si>
     <t>19,93%</t>
@@ -674,46 +689,46 @@
     <t>25,58%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
   </si>
   <si>
     <t>52,69%</t>
   </si>
   <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1128,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7144AC7A-FD35-4AC9-B232-BECED7E3ED6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B4AFDD-2827-41B3-AF9D-8627D63AD978}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1435,13 +1450,13 @@
         <v>132876</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,13 +1471,13 @@
         <v>100905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>243</v>
@@ -1471,13 +1486,13 @@
         <v>130733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>360</v>
@@ -1486,18 +1501,18 @@
         <v>231638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1509,13 +1524,13 @@
         <v>41885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>115</v>
@@ -1524,13 +1539,13 @@
         <v>68276</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -1539,13 +1554,13 @@
         <v>110161</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,13 +1575,13 @@
         <v>53234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -1575,13 +1590,13 @@
         <v>79305</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
@@ -1590,13 +1605,13 @@
         <v>132539</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1626,13 @@
         <v>111872</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>306</v>
@@ -1626,13 +1641,13 @@
         <v>152944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>451</v>
@@ -1641,13 +1656,13 @@
         <v>264816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1677,13 @@
         <v>342832</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>428</v>
@@ -1677,13 +1692,13 @@
         <v>291486</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>784</v>
@@ -1692,13 +1707,13 @@
         <v>634318</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,13 +1728,13 @@
         <v>549823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>994</v>
@@ -1728,13 +1743,13 @@
         <v>592011</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1606</v>
@@ -1743,18 +1758,18 @@
         <v>1141834</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1766,13 +1781,13 @@
         <v>60675</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>173</v>
@@ -1781,13 +1796,13 @@
         <v>115409</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>244</v>
@@ -1796,13 +1811,13 @@
         <v>176084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1832,13 @@
         <v>74362</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>201</v>
@@ -1832,13 +1847,13 @@
         <v>124856</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>282</v>
@@ -1847,13 +1862,13 @@
         <v>199218</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1883,13 @@
         <v>169373</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>427</v>
@@ -1883,13 +1898,13 @@
         <v>252409</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>630</v>
@@ -1898,13 +1913,13 @@
         <v>421782</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1934,13 @@
         <v>734838</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>715</v>
@@ -1934,13 +1949,13 @@
         <v>566800</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1324</v>
@@ -1949,13 +1964,13 @@
         <v>1301638</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1985,13 @@
         <v>1039248</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1516</v>
@@ -1985,13 +2000,13 @@
         <v>1059474</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>2480</v>
@@ -2000,18 +2015,18 @@
         <v>2098722</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2023,13 +2038,13 @@
         <v>48897</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>81</v>
@@ -2038,13 +2053,13 @@
         <v>57006</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -2053,13 +2068,13 @@
         <v>105903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2089,13 @@
         <v>41851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>142</v>
@@ -2089,13 +2104,13 @@
         <v>95133</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>187</v>
@@ -2104,13 +2119,13 @@
         <v>136984</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2140,13 @@
         <v>150478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>244</v>
@@ -2140,13 +2155,13 @@
         <v>271861</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>400</v>
@@ -2155,13 +2170,13 @@
         <v>422339</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2191,13 @@
         <v>487545</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>580</v>
@@ -2191,13 +2206,13 @@
         <v>450372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>1005</v>
@@ -2206,13 +2221,13 @@
         <v>937916</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2242,13 @@
         <v>728772</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1047</v>
@@ -2242,13 +2257,13 @@
         <v>874371</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1723</v>
@@ -2257,18 +2272,18 @@
         <v>1603142</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2280,13 +2295,13 @@
         <v>72515</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>187</v>
@@ -2295,13 +2310,13 @@
         <v>123163</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>273</v>
@@ -2310,13 +2325,13 @@
         <v>195678</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2346,13 @@
         <v>80543</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>218</v>
@@ -2346,13 +2361,13 @@
         <v>141751</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>312</v>
@@ -2361,13 +2376,13 @@
         <v>222294</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2397,13 @@
         <v>170673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>374</v>
@@ -2397,13 +2412,13 @@
         <v>253146</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>576</v>
@@ -2412,13 +2427,13 @@
         <v>423819</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2448,13 @@
         <v>641672</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>782</v>
@@ -2448,13 +2463,13 @@
         <v>629610</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>1406</v>
@@ -2463,13 +2478,13 @@
         <v>1271282</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,28 +2499,28 @@
         <v>965403</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>1561</v>
       </c>
       <c r="I28" s="7">
-        <v>1147670</v>
+        <v>1147669</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>2567</v>
@@ -2514,13 +2529,13 @@
         <v>2113073</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2552,13 @@
         <v>228449</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>570</v>
@@ -2552,13 +2567,13 @@
         <v>372205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>829</v>
@@ -2567,13 +2582,13 @@
         <v>600654</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2603,13 @@
         <v>256132</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="H30" s="7">
         <v>739</v>
@@ -2603,13 +2618,13 @@
         <v>454755</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>1032</v>
@@ -2618,13 +2633,13 @@
         <v>710887</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2654,13 @@
         <v>625856</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>1443</v>
@@ -2654,13 +2669,13 @@
         <v>972981</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>2182</v>
@@ -2669,13 +2684,13 @@
         <v>1598837</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2705,13 @@
         <v>2273714</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>2609</v>
@@ -2705,13 +2720,13 @@
         <v>2004317</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>4693</v>
@@ -2720,13 +2735,13 @@
         <v>4278031</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2756,13 @@
         <v>3384151</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>5361</v>
@@ -2756,13 +2771,13 @@
         <v>3804258</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>8736</v>
@@ -2771,18 +2786,18 @@
         <v>7188409</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C82B2242-D049-486B-B8C9-09C9771F6574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37816CF5-43A2-4484-9036-9BC2167798A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B183369-E908-4B83-86A9-C58EDD94A1DD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9A08A16E-5401-4870-852E-DE737D76A9E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="196">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,670 +65,562 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>10,88%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,8 +1035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B4AFDD-2827-41B3-AF9D-8627D63AD978}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742B8C23-EE50-4734-8A79-113A0C09BAF6}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1261,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>4477</v>
+        <v>42204</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1276,10 +1168,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="I4" s="7">
-        <v>8352</v>
+        <v>68909</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1291,10 +1183,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="N4" s="7">
-        <v>12828</v>
+        <v>111113</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1312,10 +1204,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7">
-        <v>6141</v>
+        <v>58145</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1327,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="I5" s="7">
-        <v>13711</v>
+        <v>87131</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1342,10 +1234,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="N5" s="7">
-        <v>19853</v>
+        <v>145275</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1363,10 +1255,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="D6" s="7">
-        <v>23460</v>
+        <v>127316</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1378,10 +1270,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>92</v>
+        <v>398</v>
       </c>
       <c r="I6" s="7">
-        <v>42621</v>
+        <v>182127</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1393,10 +1285,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>125</v>
+        <v>576</v>
       </c>
       <c r="N6" s="7">
-        <v>66081</v>
+        <v>309443</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1414,10 +1306,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="D7" s="7">
-        <v>66827</v>
+        <v>406747</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1429,10 +1321,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>104</v>
+        <v>532</v>
       </c>
       <c r="I7" s="7">
-        <v>66048</v>
+        <v>336701</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1444,10 +1336,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>174</v>
+        <v>958</v>
       </c>
       <c r="N7" s="7">
-        <v>132876</v>
+        <v>743448</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1465,10 +1357,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D8" s="7">
-        <v>100905</v>
+        <v>634412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1480,10 +1372,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I8" s="7">
-        <v>130733</v>
+        <v>674867</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1495,10 +1387,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>360</v>
+        <v>1966</v>
       </c>
       <c r="N8" s="7">
-        <v>231638</v>
+        <v>1309279</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1518,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>41885</v>
+        <v>54767</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1533,10 +1425,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="I9" s="7">
-        <v>68276</v>
+        <v>102075</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1548,10 +1440,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="N9" s="7">
-        <v>110161</v>
+        <v>156842</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1569,10 +1461,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>53234</v>
+        <v>70960</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1584,10 +1476,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="I10" s="7">
-        <v>79305</v>
+        <v>113922</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1599,10 +1491,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="N10" s="7">
-        <v>132539</v>
+        <v>184882</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1611,7 +1503,7 @@
         <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,49 +1512,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="D11" s="7">
-        <v>111872</v>
+        <v>156839</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>427</v>
+      </c>
+      <c r="I11" s="7">
+        <v>230050</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>306</v>
-      </c>
-      <c r="I11" s="7">
-        <v>152944</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>630</v>
+      </c>
+      <c r="N11" s="7">
+        <v>386889</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="7">
-        <v>451</v>
-      </c>
-      <c r="N11" s="7">
-        <v>264816</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,49 +1563,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>356</v>
+        <v>609</v>
       </c>
       <c r="D12" s="7">
-        <v>342832</v>
+        <v>910299</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>715</v>
+      </c>
+      <c r="I12" s="7">
+        <v>512059</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>428</v>
-      </c>
-      <c r="I12" s="7">
-        <v>291486</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>1324</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1422358</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="7">
-        <v>784</v>
-      </c>
-      <c r="N12" s="7">
-        <v>634318</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,10 +1614,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D13" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1737,10 +1629,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>994</v>
+        <v>1516</v>
       </c>
       <c r="I13" s="7">
-        <v>592011</v>
+        <v>958106</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1752,10 +1644,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>1606</v>
+        <v>2480</v>
       </c>
       <c r="N13" s="7">
-        <v>1141834</v>
+        <v>2150971</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1769,55 +1661,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>60675</v>
+        <v>44888</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>81</v>
+      </c>
+      <c r="I14" s="7">
+        <v>50655</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="7">
-        <v>173</v>
-      </c>
-      <c r="I14" s="7">
-        <v>115409</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>131</v>
+      </c>
+      <c r="N14" s="7">
+        <v>95543</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="7">
-        <v>244</v>
-      </c>
-      <c r="N14" s="7">
-        <v>176084</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1718,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D15" s="7">
-        <v>74362</v>
+        <v>39778</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>142</v>
+      </c>
+      <c r="I15" s="7">
+        <v>86509</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="7">
-        <v>201</v>
-      </c>
-      <c r="I15" s="7">
-        <v>124856</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>187</v>
+      </c>
+      <c r="N15" s="7">
+        <v>126287</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="7">
-        <v>282</v>
-      </c>
-      <c r="N15" s="7">
-        <v>199218</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,49 +1769,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="D16" s="7">
-        <v>169373</v>
+        <v>144337</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>244</v>
+      </c>
+      <c r="I16" s="7">
+        <v>355118</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="7">
-        <v>427</v>
-      </c>
-      <c r="I16" s="7">
-        <v>252409</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>400</v>
+      </c>
+      <c r="N16" s="7">
+        <v>499454</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="7">
-        <v>630</v>
-      </c>
-      <c r="N16" s="7">
-        <v>421782</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,49 +1820,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>609</v>
+        <v>425</v>
       </c>
       <c r="D17" s="7">
-        <v>734838</v>
+        <v>475677</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>580</v>
+      </c>
+      <c r="I17" s="7">
+        <v>441084</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="7">
-        <v>715</v>
-      </c>
-      <c r="I17" s="7">
-        <v>566800</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1005</v>
+      </c>
+      <c r="N17" s="7">
+        <v>916762</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="7">
-        <v>1324</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1301638</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D18" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1994,10 +1886,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I18" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2009,10 +1901,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N18" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2026,55 +1918,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D19" s="7">
-        <v>48897</v>
+        <v>66130</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>187</v>
+      </c>
+      <c r="I19" s="7">
+        <v>109576</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="7">
-        <v>81</v>
-      </c>
-      <c r="I19" s="7">
-        <v>57006</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>273</v>
+      </c>
+      <c r="N19" s="7">
+        <v>175706</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="7">
-        <v>131</v>
-      </c>
-      <c r="N19" s="7">
-        <v>105903</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,49 +1975,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D20" s="7">
-        <v>41851</v>
+        <v>76924</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>218</v>
+      </c>
+      <c r="I20" s="7">
+        <v>129148</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="7">
-        <v>142</v>
-      </c>
-      <c r="I20" s="7">
-        <v>95133</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>312</v>
+      </c>
+      <c r="N20" s="7">
+        <v>206072</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M20" s="7">
-        <v>187</v>
-      </c>
-      <c r="N20" s="7">
-        <v>136984</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,49 +2026,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="D21" s="7">
-        <v>150478</v>
+        <v>160576</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>374</v>
+      </c>
+      <c r="I21" s="7">
+        <v>226666</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="7">
-        <v>244</v>
-      </c>
-      <c r="I21" s="7">
-        <v>271861</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>576</v>
+      </c>
+      <c r="N21" s="7">
+        <v>387242</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M21" s="7">
-        <v>400</v>
-      </c>
-      <c r="N21" s="7">
-        <v>422339</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,49 +2077,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>425</v>
+        <v>624</v>
       </c>
       <c r="D22" s="7">
-        <v>487545</v>
+        <v>623201</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>782</v>
+      </c>
+      <c r="I22" s="7">
+        <v>627203</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="7">
-        <v>580</v>
-      </c>
-      <c r="I22" s="7">
-        <v>450372</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1406</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1250404</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="7">
-        <v>1005</v>
-      </c>
-      <c r="N22" s="7">
-        <v>937916</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,10 +2128,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D23" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2251,10 +2143,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I23" s="7">
-        <v>874371</v>
+        <v>1092593</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2266,10 +2158,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>1723</v>
+        <v>2567</v>
       </c>
       <c r="N23" s="7">
-        <v>1603142</v>
+        <v>2019424</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2283,55 +2175,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="D24" s="7">
-        <v>72515</v>
+        <v>207989</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="7">
+        <v>570</v>
+      </c>
+      <c r="I24" s="7">
+        <v>331214</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M24" s="7">
+        <v>829</v>
+      </c>
+      <c r="N24" s="7">
+        <v>539203</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H24" s="7">
-        <v>187</v>
-      </c>
-      <c r="I24" s="7">
-        <v>123163</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M24" s="7">
-        <v>273</v>
-      </c>
-      <c r="N24" s="7">
-        <v>195678</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,49 +2232,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>94</v>
+        <v>293</v>
       </c>
       <c r="D25" s="7">
-        <v>80543</v>
+        <v>245807</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="7">
+        <v>739</v>
+      </c>
+      <c r="I25" s="7">
+        <v>416710</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="7">
-        <v>218</v>
-      </c>
-      <c r="I25" s="7">
-        <v>141751</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>1032</v>
+      </c>
+      <c r="N25" s="7">
+        <v>662517</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M25" s="7">
-        <v>312</v>
-      </c>
-      <c r="N25" s="7">
-        <v>222294</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,49 +2283,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>202</v>
+        <v>739</v>
       </c>
       <c r="D26" s="7">
-        <v>170673</v>
+        <v>589067</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>1443</v>
+      </c>
+      <c r="I26" s="7">
+        <v>993961</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="7">
-        <v>374</v>
-      </c>
-      <c r="I26" s="7">
-        <v>253146</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>2182</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1583027</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M26" s="7">
-        <v>576</v>
-      </c>
-      <c r="N26" s="7">
-        <v>423819</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,49 +2334,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>624</v>
+        <v>2084</v>
       </c>
       <c r="D27" s="7">
-        <v>641672</v>
+        <v>2415925</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>2609</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1917047</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="7">
-        <v>782</v>
-      </c>
-      <c r="I27" s="7">
-        <v>629610</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>4693</v>
+      </c>
+      <c r="N27" s="7">
+        <v>4332971</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M27" s="7">
-        <v>1406</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1271282</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,10 +2385,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D28" s="7">
-        <v>965403</v>
+        <v>3458787</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2508,10 +2400,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>1561</v>
+        <v>5361</v>
       </c>
       <c r="I28" s="7">
-        <v>1147669</v>
+        <v>3658932</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2523,10 +2415,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>2567</v>
+        <v>8736</v>
       </c>
       <c r="N28" s="7">
-        <v>2113073</v>
+        <v>7117719</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2539,273 +2431,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>259</v>
-      </c>
-      <c r="D29" s="7">
-        <v>228449</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H29" s="7">
-        <v>570</v>
-      </c>
-      <c r="I29" s="7">
-        <v>372205</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M29" s="7">
-        <v>829</v>
-      </c>
-      <c r="N29" s="7">
-        <v>600654</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>293</v>
-      </c>
-      <c r="D30" s="7">
-        <v>256132</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="7">
-        <v>739</v>
-      </c>
-      <c r="I30" s="7">
-        <v>454755</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1032</v>
-      </c>
-      <c r="N30" s="7">
-        <v>710887</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>739</v>
-      </c>
-      <c r="D31" s="7">
-        <v>625856</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1443</v>
-      </c>
-      <c r="I31" s="7">
-        <v>972981</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M31" s="7">
-        <v>2182</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1598837</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2084</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2273714</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2609</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2004317</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M32" s="7">
-        <v>4693</v>
-      </c>
-      <c r="N32" s="7">
-        <v>4278031</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3384151</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5361</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3804258</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8736</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7188409</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>231</v>
+      <c r="A29" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023</t>
+          <t>Población según la frecuencia con la que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
